--- a/cells_for_analysis.xlsx
+++ b/cells_for_analysis.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elhan\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elhan\Github\nlxnlg_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFFA438-F00A-4399-A21E-0F0B76E1E6C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1955A7E1-6CCD-44C6-B0A1-4529D313E663}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{F9A8B8EE-8808-4161-874B-51315F4116F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$93</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -403,8 +406,8 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H93"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +442,9 @@
       <c r="A2">
         <v>66</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -459,6 +465,9 @@
       <c r="A3">
         <v>69</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
@@ -479,6 +488,9 @@
       <c r="A4">
         <v>76</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -499,6 +511,9 @@
       <c r="A5">
         <v>94</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -519,6 +534,9 @@
       <c r="A6">
         <v>101</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
@@ -539,6 +557,9 @@
       <c r="A7">
         <v>131</v>
       </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -559,6 +580,9 @@
       <c r="A8">
         <v>135</v>
       </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
@@ -579,6 +603,9 @@
       <c r="A9">
         <v>166</v>
       </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
@@ -599,6 +626,9 @@
       <c r="A10">
         <v>174</v>
       </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -619,6 +649,9 @@
       <c r="A11">
         <v>181</v>
       </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -639,6 +672,9 @@
       <c r="A12">
         <v>182</v>
       </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -659,6 +695,9 @@
       <c r="A13">
         <v>183</v>
       </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -679,6 +718,9 @@
       <c r="A14">
         <v>184</v>
       </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -699,6 +741,9 @@
       <c r="A15">
         <v>186</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
       <c r="C15">
         <v>1</v>
       </c>
@@ -719,6 +764,9 @@
       <c r="A16">
         <v>189</v>
       </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -739,6 +787,9 @@
       <c r="A17">
         <v>500</v>
       </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
       <c r="C17">
         <v>0</v>
       </c>
@@ -759,6 +810,9 @@
       <c r="A18">
         <v>515</v>
       </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -779,6 +833,9 @@
       <c r="A19">
         <v>244</v>
       </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
       <c r="C19">
         <v>0</v>
       </c>
@@ -1465,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>321</v>
       </c>
@@ -1488,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>323</v>
       </c>
@@ -1511,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>324</v>
       </c>
@@ -1534,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>326</v>
       </c>
@@ -1557,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>327</v>
       </c>
@@ -1580,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>343</v>
       </c>
@@ -1603,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>345</v>
       </c>
@@ -1626,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>349</v>
       </c>
@@ -1649,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>350</v>
       </c>
@@ -1672,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>366</v>
       </c>
@@ -1695,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>382</v>
       </c>
@@ -1718,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>386</v>
       </c>
@@ -1741,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>391</v>
       </c>
@@ -1763,8 +1820,11 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>411</v>
       </c>
@@ -1787,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>413</v>
       </c>
@@ -1810,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>416</v>
       </c>
@@ -2504,6 +2564,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H93" xr:uid="{266B40BA-44A6-4E41-8373-371B8D1D0D76}"/>
   <sortState ref="A2:E18">
     <sortCondition ref="A2:A18"/>
   </sortState>
